--- a/NatmiData/natmiOut_TPM/YoungD2/LR-pairs_lrc2p/Wnt5a-Fzd2.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD2/LR-pairs_lrc2p/Wnt5a-Fzd2.xlsx
@@ -546,10 +546,10 @@
         <v>22.544385</v>
       </c>
       <c r="I2">
-        <v>0.992147452492356</v>
+        <v>0.977669497583861</v>
       </c>
       <c r="J2">
-        <v>0.992147452492356</v>
+        <v>0.977669497583861</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -558,28 +558,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>0.08013433333333332</v>
+        <v>0.3007906666666667</v>
       </c>
       <c r="N2">
-        <v>0.240403</v>
+        <v>0.902372</v>
       </c>
       <c r="O2">
-        <v>0.008122697422248189</v>
+        <v>0.03537029821880876</v>
       </c>
       <c r="P2">
-        <v>0.008122697422248188</v>
+        <v>0.03537029821880876</v>
       </c>
       <c r="Q2">
-        <v>0.6021930874616666</v>
+        <v>2.260380197913333</v>
       </c>
       <c r="R2">
-        <v>5.419737787154999</v>
+        <v>20.34342178122</v>
       </c>
       <c r="S2">
-        <v>0.008058913554849768</v>
+        <v>0.0345804616889741</v>
       </c>
       <c r="T2">
-        <v>0.008058913554849766</v>
+        <v>0.0345804616889741</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -608,10 +608,10 @@
         <v>22.544385</v>
       </c>
       <c r="I3">
-        <v>0.992147452492356</v>
+        <v>0.977669497583861</v>
       </c>
       <c r="J3">
-        <v>0.992147452492356</v>
+        <v>0.977669497583861</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -626,10 +626,10 @@
         <v>22.943946</v>
       </c>
       <c r="O3">
-        <v>0.7752263117781462</v>
+        <v>0.899334434508434</v>
       </c>
       <c r="P3">
-        <v>0.775226311778146</v>
+        <v>0.899334434508434</v>
       </c>
       <c r="Q3">
         <v>57.47301689368999</v>
@@ -638,10 +638,10 @@
         <v>517.25715204321</v>
       </c>
       <c r="S3">
-        <v>0.7691388103357326</v>
+        <v>0.8792518447457264</v>
       </c>
       <c r="T3">
-        <v>0.7691388103357325</v>
+        <v>0.8792518447457264</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -670,10 +670,10 @@
         <v>22.544385</v>
       </c>
       <c r="I4">
-        <v>0.992147452492356</v>
+        <v>0.977669497583861</v>
       </c>
       <c r="J4">
-        <v>0.992147452492356</v>
+        <v>0.977669497583861</v>
       </c>
       <c r="K4">
         <v>1</v>
@@ -682,28 +682,28 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M4">
-        <v>0.004539333333333334</v>
+        <v>0.0008990000000000001</v>
       </c>
       <c r="N4">
-        <v>0.013618</v>
+        <v>0.002697</v>
       </c>
       <c r="O4">
-        <v>0.0004601227667548901</v>
+        <v>0.0001057143775473167</v>
       </c>
       <c r="P4">
-        <v>0.00046012276675489</v>
+        <v>0.0001057143775473167</v>
       </c>
       <c r="Q4">
-        <v>0.03411215943666666</v>
+        <v>0.006755800705</v>
       </c>
       <c r="R4">
-        <v>0.30700943493</v>
+        <v>0.060802206345</v>
       </c>
       <c r="S4">
-        <v>0.0004565096308695988</v>
+        <v>0.0001033537223840757</v>
       </c>
       <c r="T4">
-        <v>0.0004565096308695987</v>
+        <v>0.0001033537223840757</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -732,10 +732,10 @@
         <v>22.544385</v>
       </c>
       <c r="I5">
-        <v>0.992147452492356</v>
+        <v>0.977669497583861</v>
       </c>
       <c r="J5">
-        <v>0.992147452492356</v>
+        <v>0.977669497583861</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -744,28 +744,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>2.123561</v>
+        <v>0.5528646666666667</v>
       </c>
       <c r="N5">
-        <v>6.370683000000001</v>
+        <v>1.658594</v>
       </c>
       <c r="O5">
-        <v>0.2152515999470072</v>
+        <v>0.06501195117304938</v>
       </c>
       <c r="P5">
-        <v>0.2152515999470072</v>
+        <v>0.06501195117304936</v>
       </c>
       <c r="Q5">
-        <v>15.958125584995</v>
+        <v>4.154664632743333</v>
       </c>
       <c r="R5">
-        <v>143.623130264955</v>
+        <v>37.39198169469</v>
       </c>
       <c r="S5">
-        <v>0.2135613265323269</v>
+        <v>0.06356020164030168</v>
       </c>
       <c r="T5">
-        <v>0.2135613265323269</v>
+        <v>0.06356020164030167</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -794,10 +794,10 @@
         <v>22.544385</v>
       </c>
       <c r="I6">
-        <v>0.992147452492356</v>
+        <v>0.977669497583861</v>
       </c>
       <c r="J6">
-        <v>0.992147452492356</v>
+        <v>0.977669497583861</v>
       </c>
       <c r="K6">
         <v>1</v>
@@ -806,28 +806,28 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M6">
-        <v>0.009266333333333333</v>
+        <v>0.001510333333333333</v>
       </c>
       <c r="N6">
-        <v>0.027799</v>
+        <v>0.004531</v>
       </c>
       <c r="O6">
-        <v>0.0009392680858436767</v>
+        <v>0.0001776017221605087</v>
       </c>
       <c r="P6">
-        <v>0.0009392680858436766</v>
+        <v>0.0001776017221605087</v>
       </c>
       <c r="Q6">
-        <v>0.06963459540166667</v>
+        <v>0.01134984538166667</v>
       </c>
       <c r="R6">
-        <v>0.6267113586149999</v>
+        <v>0.102148608435</v>
       </c>
       <c r="S6">
-        <v>0.0009318924385771755</v>
+        <v>0.000173635786474693</v>
       </c>
       <c r="T6">
-        <v>0.0009318924385771754</v>
+        <v>0.000173635786474693</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -844,22 +844,22 @@
         <v>24</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F7">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G7">
-        <v>0.05947733333333333</v>
+        <v>0.171642</v>
       </c>
       <c r="H7">
-        <v>0.178432</v>
+        <v>0.514926</v>
       </c>
       <c r="I7">
-        <v>0.007852547507643968</v>
+        <v>0.02233050241613897</v>
       </c>
       <c r="J7">
-        <v>0.00785254750764397</v>
+        <v>0.02233050241613898</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -868,28 +868,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>0.08013433333333332</v>
+        <v>0.3007906666666667</v>
       </c>
       <c r="N7">
-        <v>0.240403</v>
+        <v>0.902372</v>
       </c>
       <c r="O7">
-        <v>0.008122697422248189</v>
+        <v>0.03537029821880876</v>
       </c>
       <c r="P7">
-        <v>0.008122697422248188</v>
+        <v>0.03537029821880876</v>
       </c>
       <c r="Q7">
-        <v>0.004766176455111111</v>
+        <v>0.05162831160799999</v>
       </c>
       <c r="R7">
-        <v>0.042895588096</v>
+        <v>0.464654804472</v>
       </c>
       <c r="S7">
-        <v>6.378386739842111E-05</v>
+        <v>0.0007898365298346651</v>
       </c>
       <c r="T7">
-        <v>6.378386739842111E-05</v>
+        <v>0.0007898365298346652</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -906,22 +906,22 @@
         <v>20</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F8">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G8">
-        <v>0.05947733333333333</v>
+        <v>0.171642</v>
       </c>
       <c r="H8">
-        <v>0.178432</v>
+        <v>0.514926</v>
       </c>
       <c r="I8">
-        <v>0.007852547507643968</v>
+        <v>0.02233050241613897</v>
       </c>
       <c r="J8">
-        <v>0.00785254750764397</v>
+        <v>0.02233050241613898</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -936,22 +936,22 @@
         <v>22.943946</v>
       </c>
       <c r="O8">
-        <v>0.7752263117781462</v>
+        <v>0.899334434508434</v>
       </c>
       <c r="P8">
-        <v>0.775226311778146</v>
+        <v>0.899334434508434</v>
       </c>
       <c r="Q8">
-        <v>0.4548815747413333</v>
+        <v>1.312714926444</v>
       </c>
       <c r="R8">
-        <v>4.093934172672</v>
+        <v>11.814434337996</v>
       </c>
       <c r="S8">
-        <v>0.006087501442413507</v>
+        <v>0.02008258976270756</v>
       </c>
       <c r="T8">
-        <v>0.006087501442413508</v>
+        <v>0.02008258976270757</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -968,22 +968,22 @@
         <v>25</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F9">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G9">
-        <v>0.05947733333333333</v>
+        <v>0.171642</v>
       </c>
       <c r="H9">
-        <v>0.178432</v>
+        <v>0.514926</v>
       </c>
       <c r="I9">
-        <v>0.007852547507643968</v>
+        <v>0.02233050241613897</v>
       </c>
       <c r="J9">
-        <v>0.00785254750764397</v>
+        <v>0.02233050241613898</v>
       </c>
       <c r="K9">
         <v>1</v>
@@ -992,28 +992,28 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M9">
-        <v>0.004539333333333334</v>
+        <v>0.0008990000000000001</v>
       </c>
       <c r="N9">
-        <v>0.013618</v>
+        <v>0.002697</v>
       </c>
       <c r="O9">
-        <v>0.0004601227667548901</v>
+        <v>0.0001057143775473167</v>
       </c>
       <c r="P9">
-        <v>0.00046012276675489</v>
+        <v>0.0001057143775473167</v>
       </c>
       <c r="Q9">
-        <v>0.0002699874417777778</v>
+        <v>0.000154306158</v>
       </c>
       <c r="R9">
-        <v>0.002429886976</v>
+        <v>0.001388755422</v>
       </c>
       <c r="S9">
-        <v>3.61313588529136E-06</v>
+        <v>2.360655163240983E-06</v>
       </c>
       <c r="T9">
-        <v>3.613135885291359E-06</v>
+        <v>2.360655163240983E-06</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1030,22 +1030,22 @@
         <v>21</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F10">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G10">
-        <v>0.05947733333333333</v>
+        <v>0.171642</v>
       </c>
       <c r="H10">
-        <v>0.178432</v>
+        <v>0.514926</v>
       </c>
       <c r="I10">
-        <v>0.007852547507643968</v>
+        <v>0.02233050241613897</v>
       </c>
       <c r="J10">
-        <v>0.00785254750764397</v>
+        <v>0.02233050241613898</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1054,28 +1054,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>2.123561</v>
+        <v>0.5528646666666667</v>
       </c>
       <c r="N10">
-        <v>6.370683000000001</v>
+        <v>1.658594</v>
       </c>
       <c r="O10">
-        <v>0.2152515999470072</v>
+        <v>0.06501195117304938</v>
       </c>
       <c r="P10">
-        <v>0.2152515999470072</v>
+        <v>0.06501195117304936</v>
       </c>
       <c r="Q10">
-        <v>0.1263037454506667</v>
+        <v>0.09489479711599999</v>
       </c>
       <c r="R10">
-        <v>1.136733709056</v>
+        <v>0.8540531740439999</v>
       </c>
       <c r="S10">
-        <v>0.001690273414680248</v>
+        <v>0.001451749532747688</v>
       </c>
       <c r="T10">
-        <v>0.001690273414680248</v>
+        <v>0.001451749532747688</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1092,22 +1092,22 @@
         <v>26</v>
       </c>
       <c r="E11">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F11">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G11">
-        <v>0.05947733333333333</v>
+        <v>0.171642</v>
       </c>
       <c r="H11">
-        <v>0.178432</v>
+        <v>0.514926</v>
       </c>
       <c r="I11">
-        <v>0.007852547507643968</v>
+        <v>0.02233050241613897</v>
       </c>
       <c r="J11">
-        <v>0.00785254750764397</v>
+        <v>0.02233050241613898</v>
       </c>
       <c r="K11">
         <v>1</v>
@@ -1116,28 +1116,28 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M11">
-        <v>0.009266333333333333</v>
+        <v>0.001510333333333333</v>
       </c>
       <c r="N11">
-        <v>0.027799</v>
+        <v>0.004531</v>
       </c>
       <c r="O11">
-        <v>0.0009392680858436767</v>
+        <v>0.0001776017221605087</v>
       </c>
       <c r="P11">
-        <v>0.0009392680858436766</v>
+        <v>0.0001776017221605087</v>
       </c>
       <c r="Q11">
-        <v>0.0005511367964444444</v>
+        <v>0.000259236634</v>
       </c>
       <c r="R11">
-        <v>0.004960231168</v>
+        <v>0.002333129706</v>
       </c>
       <c r="S11">
-        <v>7.375647266501285E-06</v>
+        <v>3.965935685815681E-06</v>
       </c>
       <c r="T11">
-        <v>7.375647266501285E-06</v>
+        <v>3.965935685815683E-06</v>
       </c>
     </row>
   </sheetData>
